--- a/target/classes/files/Conditions.xlsx
+++ b/target/classes/files/Conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\IdeaProjects\AnemiaDSS\src\main\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559176A-153C-4B97-8C4C-F446A212C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5237C325-5BE8-C042-B63A-5FCFA2566089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,17 +1433,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="56" width="35.77734375" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="2" max="56" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="19.95" customHeight="1">
+    <row r="1" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="19.95" customHeight="1">
+    <row r="2" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>101</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="BC2" s="92"/>
       <c r="BD2" s="91"/>
     </row>
-    <row r="3" spans="1:56" ht="19.95" customHeight="1">
+    <row r="3" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="BC3" s="92"/>
       <c r="BD3" s="91"/>
     </row>
-    <row r="4" spans="1:56" ht="19.95" customHeight="1">
+    <row r="4" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>75</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="BC4" s="23"/>
       <c r="BD4" s="24"/>
     </row>
-    <row r="5" spans="1:56" ht="19.95" customHeight="1">
+    <row r="5" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="BC5" s="26"/>
       <c r="BD5" s="27"/>
     </row>
-    <row r="6" spans="1:56" ht="19.95" customHeight="1">
+    <row r="6" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>77</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="BC6" s="36"/>
       <c r="BD6" s="37"/>
     </row>
-    <row r="7" spans="1:56" ht="19.95" customHeight="1">
+    <row r="7" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>78</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="BC7" s="36"/>
       <c r="BD7" s="37"/>
     </row>
-    <row r="8" spans="1:56" ht="19.95" customHeight="1">
+    <row r="8" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>104</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="BC8" s="49"/>
       <c r="BD8" s="50"/>
     </row>
-    <row r="9" spans="1:56" ht="19.95" customHeight="1">
+    <row r="9" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="BC9" s="49"/>
       <c r="BD9" s="50"/>
     </row>
-    <row r="10" spans="1:56" ht="19.95" customHeight="1">
+    <row r="10" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="BC10" s="54"/>
       <c r="BD10" s="55"/>
     </row>
-    <row r="11" spans="1:56" ht="19.95" customHeight="1">
+    <row r="11" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="BC11" s="54"/>
       <c r="BD11" s="55"/>
     </row>
-    <row r="12" spans="1:56" ht="19.95" customHeight="1">
+    <row r="12" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>85</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="BC12" s="11"/>
       <c r="BD12" s="10"/>
     </row>
-    <row r="13" spans="1:56" ht="19.95" customHeight="1">
+    <row r="13" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>86</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="BC13" s="11"/>
       <c r="BD13" s="10"/>
     </row>
-    <row r="14" spans="1:56" ht="19.95" customHeight="1">
+    <row r="14" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>79</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="19.95" customHeight="1">
+    <row r="15" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="19.95" customHeight="1">
+    <row r="16" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>114</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="BC16" s="104"/>
       <c r="BD16" s="103"/>
     </row>
-    <row r="17" spans="1:56" ht="19.95" customHeight="1">
+    <row r="17" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>115</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="BC17" s="104"/>
       <c r="BD17" s="103"/>
     </row>
-    <row r="18" spans="1:56" ht="19.95" customHeight="1">
+    <row r="18" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="BC18" s="43"/>
       <c r="BD18" s="44"/>
     </row>
-    <row r="19" spans="1:56" ht="19.95" customHeight="1">
+    <row r="19" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="BC19" s="43"/>
       <c r="BD19" s="44"/>
     </row>
-    <row r="20" spans="1:56" ht="19.95" customHeight="1">
+    <row r="20" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>83</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="BD20" s="68"/>
     </row>
-    <row r="21" spans="1:56" ht="19.95" customHeight="1">
+    <row r="21" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
         <v>84</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="BD21" s="80"/>
     </row>
-    <row r="25" spans="1:56">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="N25" s="84"/>
     </row>
   </sheetData>
